--- a/WebUI/uploads/Detail.xlsx
+++ b/WebUI/uploads/Detail.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,21 +443,21 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,9 +483,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -509,9 +509,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1234</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -535,9 +535,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1234</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -561,9 +561,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>12345</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
